--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0007743582749375587</v>
+        <v>0.0007754405458628474</v>
       </c>
       <c r="E2">
-        <v>0.0007743582749375587</v>
+        <v>0.0007754405458628474</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8743962024842368</v>
+        <v>0.8744353818827404</v>
       </c>
       <c r="E3">
-        <v>0.8743962024842368</v>
+        <v>0.8744353818827404</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001072742678145343</v>
+        <v>0.001072861189595828</v>
       </c>
       <c r="E4">
-        <v>0.001072742678145343</v>
+        <v>0.001072861189595828</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5.606428219321495E-13</v>
+        <v>5.695518310458689E-13</v>
       </c>
       <c r="E5">
-        <v>5.606428219321495E-13</v>
+        <v>5.695518310458689E-13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7225391356038657</v>
+        <v>0.7221888631987826</v>
       </c>
       <c r="E6">
-        <v>0.7225391356038657</v>
+        <v>0.7221888631987826</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9816578137595986</v>
+        <v>0.748266836408498</v>
       </c>
       <c r="E7">
-        <v>0.0183421862404014</v>
+        <v>0.251733163591502</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.983970754993907</v>
+        <v>1.218166366293734E-07</v>
       </c>
       <c r="E8">
-        <v>0.01602924500609304</v>
+        <v>0.9999998781833633</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9829124608596499</v>
+        <v>0.9418445522083554</v>
       </c>
       <c r="E9">
-        <v>0.01708753914035011</v>
+        <v>0.05815544779164461</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9801256269029196</v>
+        <v>0.5491940909700388</v>
       </c>
       <c r="E10">
-        <v>0.0198743730970804</v>
+        <v>0.4508059090299612</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9843067007773962</v>
+        <v>0.9999999916341885</v>
       </c>
       <c r="E11">
-        <v>0.01569329922260376</v>
+        <v>8.365811487998087E-09</v>
       </c>
       <c r="F11">
-        <v>0.3446345925331116</v>
+        <v>2.022756099700928</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>7.25006113934525E-08</v>
+        <v>7.222562763807043E-08</v>
       </c>
       <c r="E12">
-        <v>7.25006113934525E-08</v>
+        <v>7.222562763807043E-08</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.8758290521187084</v>
+        <v>0.8746887032394338</v>
       </c>
       <c r="E13">
-        <v>0.8758290521187084</v>
+        <v>0.8746887032394338</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.453430524029148E-07</v>
+        <v>1.46192447132351E-07</v>
       </c>
       <c r="E14">
-        <v>1.453430524029148E-07</v>
+        <v>1.46192447132351E-07</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2.63844531861084E-12</v>
+        <v>2.667342146301273E-12</v>
       </c>
       <c r="E15">
-        <v>2.63844531861084E-12</v>
+        <v>2.667342146301273E-12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.95942462272375</v>
+        <v>0.9597346355012241</v>
       </c>
       <c r="E16">
-        <v>0.95942462272375</v>
+        <v>0.9597346355012241</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9996635928591401</v>
+        <v>0.9555242470885883</v>
       </c>
       <c r="E17">
-        <v>0.0003364071408599179</v>
+        <v>0.0444757529114117</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.999761657828605</v>
+        <v>1.167333019782722E-06</v>
       </c>
       <c r="E18">
-        <v>0.0002383421713949563</v>
+        <v>0.9999988326669802</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9997221972444819</v>
+        <v>0.1285291646841141</v>
       </c>
       <c r="E19">
-        <v>0.0002778027555181417</v>
+        <v>0.871470835315886</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9995908498600722</v>
+        <v>4.450950293059468E-06</v>
       </c>
       <c r="E20">
-        <v>0.0004091501399278163</v>
+        <v>0.9999955490497069</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.999775281139878</v>
+        <v>0.999999999999974</v>
       </c>
       <c r="E21">
-        <v>0.0002247188601219863</v>
+        <v>2.597921877622866E-14</v>
       </c>
       <c r="F21">
-        <v>0.5292176604270935</v>
+        <v>3.336949586868286</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
